--- a/data/trans_orig/Q17F_D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 27,1</t>
+          <t>6,46; 23,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,0</t>
+          <t>5,06; 15,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 21,08</t>
+          <t>3,39; 21,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,86</t>
+          <t>4,06; 14,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,02</t>
+          <t>4,58; 15,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,98</t>
+          <t>2,87; 13,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 28,24</t>
+          <t>8,52; 26,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 42,53</t>
+          <t>13,81; 39,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,46</t>
+          <t>6,83; 16,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,36</t>
+          <t>4,61; 11,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 19,74</t>
+          <t>7,88; 19,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 26,23</t>
+          <t>10,16; 25,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 47,07</t>
+          <t>9,68; 50,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,33</t>
+          <t>5,68; 17,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,53</t>
+          <t>5,04; 14,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 73,91</t>
+          <t>13,23; 71,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 25,16</t>
+          <t>10,71; 24,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 21,62</t>
+          <t>6,17; 21,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 21,34</t>
+          <t>9,2; 21,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 45,6</t>
+          <t>17,92; 47,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 27,76</t>
+          <t>11,64; 25,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,5</t>
+          <t>7,13; 17,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,51</t>
+          <t>8,39; 17,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 50,29</t>
+          <t>18,2; 48,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 32,97</t>
+          <t>3,43; 37,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 19,33</t>
+          <t>4,53; 20,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 17,76</t>
+          <t>2,87; 18,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 30,79</t>
+          <t>8,46; 31,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,54</t>
+          <t>2,26; 6,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 21,11</t>
+          <t>3,98; 20,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 27,84</t>
+          <t>5,4; 24,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,43</t>
+          <t>7,93; 15,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,74</t>
+          <t>3,56; 15,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 16,12</t>
+          <t>5,41; 16,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,66</t>
+          <t>5,79; 18,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 20,63</t>
+          <t>9,44; 20,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 32,13</t>
+          <t>8,65; 31,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 21,98</t>
+          <t>7,04; 24,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 24,52</t>
+          <t>7,83; 25,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 103,98</t>
+          <t>29,36; 101,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,58</t>
+          <t>1,96; 8,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 18,04</t>
+          <t>5,86; 18,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 23,58</t>
+          <t>8,67; 24,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 24,62</t>
+          <t>7,07; 23,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,04</t>
+          <t>4,72; 12,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 16,95</t>
+          <t>7,51; 17,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 21,68</t>
+          <t>9,67; 21,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 40,09</t>
+          <t>11,75; 40,98</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 16,35</t>
+          <t>3,67; 17,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 12,09</t>
+          <t>2,04; 13,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 19,99</t>
+          <t>2,74; 18,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,41; 150,37</t>
+          <t>18,82; 133,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 14,96</t>
+          <t>5,04; 15,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,12</t>
+          <t>4,84; 11,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 40,34</t>
+          <t>4,67; 33,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 16,15</t>
+          <t>8,1; 16,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,68</t>
+          <t>5,62; 13,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,33</t>
+          <t>4,21; 9,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 26,04</t>
+          <t>5,46; 24,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 66,5</t>
+          <t>14,6; 74,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,62</t>
+          <t>1,67; 14,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 16,88</t>
+          <t>4,78; 16,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,0</t>
+          <t>2,37; 7,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 21,33</t>
+          <t>6,22; 22,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 28,96</t>
+          <t>4,0; 29,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,7; 19,92</t>
+          <t>5,87; 20,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,16</t>
+          <t>3,45; 10,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 32,56</t>
+          <t>8,06; 30,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,18; 19,37</t>
+          <t>3,89; 19,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,64; 15,85</t>
+          <t>6,71; 15,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,92</t>
+          <t>3,43; 8,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 21,96</t>
+          <t>8,42; 22,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,93</t>
+          <t>6,7; 14,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 19,32</t>
+          <t>8,48; 19,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,9; 29,55</t>
+          <t>12,29; 28,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 49,64</t>
+          <t>22,42; 49,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,64; 18,51</t>
+          <t>7,48; 18,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 18,95</t>
+          <t>8,95; 20,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 23,26</t>
+          <t>9,28; 22,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,67; 35,99</t>
+          <t>20,25; 36,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,27</t>
+          <t>8,13; 15,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 17,3</t>
+          <t>9,88; 17,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 22,91</t>
+          <t>12,2; 22,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 36,8</t>
+          <t>23,43; 38,49</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,84</t>
+          <t>4,05; 11,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 13,97</t>
+          <t>5,23; 13,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,95</t>
+          <t>4,84; 11,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,64; 20,34</t>
+          <t>10,8; 19,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,5; 14,51</t>
+          <t>5,25; 14,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 16,79</t>
+          <t>6,0; 15,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,05; 34,34</t>
+          <t>11,07; 34,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,47; 35,16</t>
+          <t>18,11; 34,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,09</t>
+          <t>5,33; 11,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 12,91</t>
+          <t>6,59; 13,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,97; 23,67</t>
+          <t>8,44; 22,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,71; 26,12</t>
+          <t>16,42; 26,16</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,04</t>
+          <t>8,2; 14,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,2</t>
+          <t>8,15; 12,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,55</t>
+          <t>8,15; 12,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,26; 31,01</t>
+          <t>19,03; 31,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,53</t>
+          <t>7,54; 11,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,7</t>
+          <t>8,07; 12,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,96</t>
+          <t>11,15; 18,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 24,49</t>
+          <t>16,83; 24,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,58</t>
+          <t>8,27; 11,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,61</t>
+          <t>8,66; 11,82</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,47</t>
+          <t>10,45; 14,83</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,53; 25,53</t>
+          <t>18,76; 26,01</t>
         </is>
       </c>
     </row>
